--- a/temp/Temp_TR_Shipments.xlsx
+++ b/temp/Temp_TR_Shipments.xlsx
@@ -68,13 +68,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B2" t="n">
-        <v>-80.04743</v>
+        <v>-80.03329</v>
       </c>
       <c r="C2" t="n">
-        <v>41.05852433</v>
+        <v>41.06307594</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="n">
@@ -83,13 +83,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12.0</v>
+        <v>19.0</v>
       </c>
       <c r="B3" t="n">
-        <v>-80.03358</v>
+        <v>-80.03939</v>
       </c>
       <c r="C3" t="n">
-        <v>41.06328294</v>
+        <v>41.06750213</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
@@ -98,13 +98,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
       <c r="B4" t="n">
-        <v>-80.03464</v>
+        <v>-80.047</v>
       </c>
       <c r="C4" t="n">
-        <v>41.06182129</v>
+        <v>41.05760118</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="n">
@@ -113,13 +113,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14.0</v>
+        <v>5.0</v>
       </c>
       <c r="B5" t="n">
-        <v>-80.03641</v>
+        <v>-80.04759</v>
       </c>
       <c r="C5" t="n">
-        <v>41.06307329</v>
+        <v>41.05780933</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="n">
@@ -128,13 +128,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="B6" t="n">
-        <v>-80.03649</v>
+        <v>-80.04773</v>
       </c>
       <c r="C6" t="n">
-        <v>41.06399662</v>
+        <v>41.0580007</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="n">
@@ -143,13 +143,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
       <c r="B7" t="n">
-        <v>-80.03693</v>
+        <v>-80.04754</v>
       </c>
       <c r="C7" t="n">
-        <v>41.06944105</v>
+        <v>41.05828804</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="n">
@@ -158,676 +158,406 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>17.0</v>
+        <v>35.0</v>
       </c>
       <c r="B8" t="n">
-        <v>-80.03837</v>
+        <v>-80.04429</v>
       </c>
       <c r="C8" t="n">
-        <v>41.0630362</v>
+        <v>41.06019151</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>20.0</v>
+        <v>37.0</v>
       </c>
       <c r="B9" t="n">
-        <v>-80.04046</v>
+        <v>-80.04618</v>
       </c>
       <c r="C9" t="n">
-        <v>41.06778319</v>
+        <v>41.06131199</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>21.0</v>
+        <v>46.0</v>
       </c>
       <c r="B10" t="n">
-        <v>-80.04038</v>
+        <v>-80.04967</v>
       </c>
       <c r="C10" t="n">
-        <v>41.06717882</v>
+        <v>41.05954292</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>28.0</v>
+        <v>51.0</v>
       </c>
       <c r="B11" t="n">
-        <v>-80.04781</v>
+        <v>-80.04918</v>
       </c>
       <c r="C11" t="n">
-        <v>41.05762504</v>
+        <v>41.06111633</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>30.0</v>
+        <v>52.0</v>
       </c>
       <c r="B12" t="n">
-        <v>-80.04738</v>
+        <v>-80.04904</v>
       </c>
       <c r="C12" t="n">
-        <v>41.05841401</v>
+        <v>41.06199026</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>32.0</v>
+        <v>53.0</v>
       </c>
       <c r="B13" t="n">
-        <v>-80.04666</v>
+        <v>-80.04843</v>
       </c>
       <c r="C13" t="n">
-        <v>41.05817512</v>
+        <v>41.06219888</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11.0</v>
+        <v>56.0</v>
       </c>
       <c r="B14" t="n">
-        <v>-80.03329</v>
+        <v>-80.05029</v>
       </c>
       <c r="C14" t="n">
-        <v>41.06307594</v>
+        <v>41.06199246</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>19.0</v>
+        <v>58.0</v>
       </c>
       <c r="B15" t="n">
-        <v>-80.03939</v>
+        <v>-80.05221</v>
       </c>
       <c r="C15" t="n">
-        <v>41.06750213</v>
+        <v>41.0612051</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>36.0</v>
+        <v>22.0</v>
       </c>
       <c r="B16" t="n">
-        <v>-80.047</v>
+        <v>-80.04068</v>
       </c>
       <c r="C16" t="n">
-        <v>41.05760118</v>
+        <v>41.06667837</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>38.0</v>
+        <v>25.0</v>
       </c>
       <c r="B17" t="n">
-        <v>-80.04759</v>
+        <v>-80.04078</v>
       </c>
       <c r="C17" t="n">
-        <v>41.05780933</v>
+        <v>41.06539249</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>40.0</v>
+        <v>33.0</v>
       </c>
       <c r="B18" t="n">
-        <v>-80.04773</v>
+        <v>-80.04046</v>
       </c>
       <c r="C18" t="n">
-        <v>41.0580007</v>
+        <v>41.06106754</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>42.0</v>
+        <v>38.0</v>
       </c>
       <c r="B19" t="n">
-        <v>-80.04754</v>
+        <v>-80.0457</v>
       </c>
       <c r="C19" t="n">
-        <v>41.05828804</v>
+        <v>41.06212885</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>35.0</v>
+        <v>39.0</v>
       </c>
       <c r="B20" t="n">
-        <v>-80.04429</v>
+        <v>-80.04841</v>
       </c>
       <c r="C20" t="n">
-        <v>41.06019151</v>
+        <v>41.05778901</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>37.0</v>
+        <v>31.0</v>
       </c>
       <c r="B21" t="n">
-        <v>-80.04618</v>
+        <v>-80.04273</v>
       </c>
       <c r="C21" t="n">
-        <v>41.06131199</v>
+        <v>41.06188615</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>46.0</v>
+        <v>34.0</v>
       </c>
       <c r="B22" t="n">
-        <v>-80.04967</v>
+        <v>-80.04257</v>
       </c>
       <c r="C22" t="n">
-        <v>41.05954292</v>
+        <v>41.06085219</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>51.0</v>
+        <v>40.0</v>
       </c>
       <c r="B23" t="n">
-        <v>-80.04918</v>
+        <v>-80.04808</v>
       </c>
       <c r="C23" t="n">
-        <v>41.06111633</v>
+        <v>41.05762051</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>52.0</v>
+        <v>44.0</v>
       </c>
       <c r="B24" t="n">
-        <v>-80.04904</v>
+        <v>-80.0488</v>
       </c>
       <c r="C24" t="n">
-        <v>41.06199026</v>
+        <v>41.06003739</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>53.0</v>
+        <v>50.0</v>
       </c>
       <c r="B25" t="n">
-        <v>-80.04843</v>
+        <v>-80.04951</v>
       </c>
       <c r="C25" t="n">
-        <v>41.06219888</v>
+        <v>41.06127026</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>56.0</v>
+        <v>18.0</v>
       </c>
       <c r="B26" t="n">
-        <v>-80.05029</v>
+        <v>-80.03876</v>
       </c>
       <c r="C26" t="n">
-        <v>41.06199246</v>
+        <v>41.06529995</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>58.0</v>
+        <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>-80.05221</v>
+        <v>-80.04192</v>
       </c>
       <c r="C27" t="n">
-        <v>41.0612051</v>
+        <v>41.06552861</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>22.0</v>
+        <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>-80.04068</v>
+        <v>-80.0422</v>
       </c>
       <c r="C28" t="n">
-        <v>41.06667837</v>
+        <v>41.06527751</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>-80.04078</v>
+        <v>-80.04381</v>
       </c>
       <c r="C29" t="n">
-        <v>41.06539249</v>
+        <v>41.0649643</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>33.0</v>
+        <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>-80.04046</v>
+        <v>-80.0436</v>
       </c>
       <c r="C30" t="n">
-        <v>41.06106754</v>
+        <v>41.06516554</v>
       </c>
       <c r="D30"/>
       <c r="E30" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>38.0</v>
+        <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>-80.0457</v>
+        <v>-80.04349</v>
       </c>
       <c r="C31" t="n">
-        <v>41.06212885</v>
+        <v>41.06326948</v>
       </c>
       <c r="D31"/>
       <c r="E31" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
       <c r="B32" t="n">
-        <v>-80.04841</v>
+        <v>-80.04431</v>
       </c>
       <c r="C32" t="n">
-        <v>41.05778901</v>
+        <v>41.06092536</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>41.0</v>
+        <v>49.0</v>
       </c>
       <c r="B33" t="n">
-        <v>-80.04595</v>
+        <v>-80.05009</v>
       </c>
       <c r="C33" t="n">
-        <v>41.05988253</v>
+        <v>41.06067186</v>
       </c>
       <c r="D33"/>
       <c r="E33" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>42.0</v>
+        <v>57.0</v>
       </c>
       <c r="B34" t="n">
-        <v>-80.0459</v>
+        <v>-80.05152</v>
       </c>
       <c r="C34" t="n">
-        <v>41.06011254</v>
+        <v>41.061453</v>
       </c>
       <c r="D34"/>
       <c r="E34" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="B35" t="n">
-        <v>-80.04838</v>
-      </c>
-      <c r="C35" t="n">
-        <v>41.06107385</v>
-      </c>
-      <c r="D35"/>
-      <c r="E35" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="B36" t="n">
-        <v>-80.05088</v>
-      </c>
-      <c r="C36" t="n">
-        <v>41.05933591</v>
-      </c>
-      <c r="D36"/>
-      <c r="E36" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="B37" t="n">
-        <v>-80.05073</v>
-      </c>
-      <c r="C37" t="n">
-        <v>41.05993479</v>
-      </c>
-      <c r="D37"/>
-      <c r="E37" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="B38" t="n">
-        <v>-80.05309</v>
-      </c>
-      <c r="C38" t="n">
-        <v>41.0620405</v>
-      </c>
-      <c r="D38"/>
-      <c r="E38" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="B39" t="n">
-        <v>-80.04273</v>
-      </c>
-      <c r="C39" t="n">
-        <v>41.06188615</v>
-      </c>
-      <c r="D39"/>
-      <c r="E39" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="B40" t="n">
-        <v>-80.04257</v>
-      </c>
-      <c r="C40" t="n">
-        <v>41.06085219</v>
-      </c>
-      <c r="D40"/>
-      <c r="E40" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="B41" t="n">
-        <v>-80.04808</v>
-      </c>
-      <c r="C41" t="n">
-        <v>41.05762051</v>
-      </c>
-      <c r="D41"/>
-      <c r="E41" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="B42" t="n">
-        <v>-80.0488</v>
-      </c>
-      <c r="C42" t="n">
-        <v>41.06003739</v>
-      </c>
-      <c r="D42"/>
-      <c r="E42" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="B43" t="n">
-        <v>-80.04951</v>
-      </c>
-      <c r="C43" t="n">
-        <v>41.06127026</v>
-      </c>
-      <c r="D43"/>
-      <c r="E43" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="B44" t="n">
-        <v>-80.03876</v>
-      </c>
-      <c r="C44" t="n">
-        <v>41.06529995</v>
-      </c>
-      <c r="D44"/>
-      <c r="E44" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="B45" t="n">
-        <v>-80.04192</v>
-      </c>
-      <c r="C45" t="n">
-        <v>41.06552861</v>
-      </c>
-      <c r="D45"/>
-      <c r="E45" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="B46" t="n">
-        <v>-80.0422</v>
-      </c>
-      <c r="C46" t="n">
-        <v>41.06527751</v>
-      </c>
-      <c r="D46"/>
-      <c r="E46" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="B47" t="n">
-        <v>-80.04381</v>
-      </c>
-      <c r="C47" t="n">
-        <v>41.0649643</v>
-      </c>
-      <c r="D47"/>
-      <c r="E47" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="B48" t="n">
-        <v>-80.0436</v>
-      </c>
-      <c r="C48" t="n">
-        <v>41.06516554</v>
-      </c>
-      <c r="D48"/>
-      <c r="E48" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="B49" t="n">
-        <v>-80.04349</v>
-      </c>
-      <c r="C49" t="n">
-        <v>41.06326948</v>
-      </c>
-      <c r="D49"/>
-      <c r="E49" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="B50" t="n">
-        <v>-80.04431</v>
-      </c>
-      <c r="C50" t="n">
-        <v>41.06092536</v>
-      </c>
-      <c r="D50"/>
-      <c r="E50" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="B51" t="n">
-        <v>-80.05009</v>
-      </c>
-      <c r="C51" t="n">
-        <v>41.06067186</v>
-      </c>
-      <c r="D51"/>
-      <c r="E51" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="B52" t="n">
-        <v>-80.05152</v>
-      </c>
-      <c r="C52" t="n">
-        <v>41.061453</v>
-      </c>
-      <c r="D52"/>
-      <c r="E52" t="n">
         <v>6.0</v>
       </c>
     </row>

--- a/temp/Temp_TR_Shipments.xlsx
+++ b/temp/Temp_TR_Shipments.xlsx
@@ -78,7 +78,7 @@
       </c>
       <c r="D2"/>
       <c r="E2" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="3">
@@ -93,7 +93,7 @@
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="4">
@@ -108,7 +108,7 @@
       </c>
       <c r="D4"/>
       <c r="E4" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="5">
@@ -123,7 +123,7 @@
       </c>
       <c r="D5"/>
       <c r="E5" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="6">
@@ -138,7 +138,7 @@
       </c>
       <c r="D6"/>
       <c r="E6" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="7">
@@ -153,7 +153,7 @@
       </c>
       <c r="D7"/>
       <c r="E7" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="8">
@@ -168,7 +168,7 @@
       </c>
       <c r="D8"/>
       <c r="E8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="9">
@@ -183,7 +183,7 @@
       </c>
       <c r="D9"/>
       <c r="E9" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="10">
@@ -198,7 +198,7 @@
       </c>
       <c r="D10"/>
       <c r="E10" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="11">
@@ -213,7 +213,7 @@
       </c>
       <c r="D11"/>
       <c r="E11" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="12">
@@ -228,7 +228,7 @@
       </c>
       <c r="D12"/>
       <c r="E12" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="13">
@@ -243,7 +243,7 @@
       </c>
       <c r="D13"/>
       <c r="E13" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="14">
@@ -258,7 +258,7 @@
       </c>
       <c r="D14"/>
       <c r="E14" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="15">
@@ -273,7 +273,7 @@
       </c>
       <c r="D15"/>
       <c r="E15" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="16">
@@ -288,7 +288,7 @@
       </c>
       <c r="D16"/>
       <c r="E16" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="17">
@@ -303,7 +303,7 @@
       </c>
       <c r="D17"/>
       <c r="E17" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="18">
@@ -318,7 +318,7 @@
       </c>
       <c r="D18"/>
       <c r="E18" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="19">
@@ -333,7 +333,7 @@
       </c>
       <c r="D19"/>
       <c r="E19" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="20">
@@ -348,7 +348,7 @@
       </c>
       <c r="D20"/>
       <c r="E20" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="21">
@@ -363,7 +363,472 @@
       </c>
       <c r="D21"/>
       <c r="E21" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21.0</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="D22"/>
+      <c r="E22" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>22.0</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="D23"/>
+      <c r="E23" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>23.0</v>
+      </c>
+      <c r="B24" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="D24"/>
+      <c r="E24" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>24.0</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="D25"/>
+      <c r="E25" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="D26"/>
+      <c r="E26" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>26.0</v>
+      </c>
+      <c r="B27" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="D27"/>
+      <c r="E27" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27.0</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="D28"/>
+      <c r="E28" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28.0</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="D29"/>
+      <c r="E29" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29.0</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="D30"/>
+      <c r="E30" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="D31"/>
+      <c r="E31" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31.0</v>
+      </c>
+      <c r="B32" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="D32"/>
+      <c r="E32" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>32.0</v>
+      </c>
+      <c r="B33" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="D33"/>
+      <c r="E33" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>33.0</v>
+      </c>
+      <c r="B34" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="D34"/>
+      <c r="E34" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34.0</v>
+      </c>
+      <c r="B35" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="D35"/>
+      <c r="E35" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35.0</v>
+      </c>
+      <c r="B36" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>36.0</v>
+      </c>
+      <c r="B37" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>37.0</v>
+      </c>
+      <c r="B38" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38.0</v>
+      </c>
+      <c r="B39" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39.0</v>
+      </c>
+      <c r="B40" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40.0</v>
+      </c>
+      <c r="B41" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41.0</v>
+      </c>
+      <c r="B42" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42.0</v>
+      </c>
+      <c r="B43" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="D43"/>
+      <c r="E43" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>43.0</v>
+      </c>
+      <c r="B44" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="D44"/>
+      <c r="E44" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44.0</v>
+      </c>
+      <c r="B45" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="D45"/>
+      <c r="E45" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45.0</v>
+      </c>
+      <c r="B46" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="D46"/>
+      <c r="E46" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46.0</v>
+      </c>
+      <c r="B47" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="D47"/>
+      <c r="E47" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>47.0</v>
+      </c>
+      <c r="B48" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="D48"/>
+      <c r="E48" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>48.0</v>
+      </c>
+      <c r="B49" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="D49"/>
+      <c r="E49" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>49.0</v>
+      </c>
+      <c r="B50" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="D50"/>
+      <c r="E50" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>50.0</v>
+      </c>
+      <c r="B51" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="D51"/>
+      <c r="E51" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>51.0</v>
+      </c>
+      <c r="B52" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-1.0</v>
+      </c>
+      <c r="D52"/>
+      <c r="E52" t="n">
+        <v>1.0</v>
       </c>
     </row>
   </sheetData>

--- a/temp/Temp_TR_Shipments.xlsx
+++ b/temp/Temp_TR_Shipments.xlsx
@@ -68,13 +68,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10.0</v>
+        <v>11.0</v>
       </c>
       <c r="B2" t="n">
-        <v>-80.04743</v>
+        <v>-80.03329</v>
       </c>
       <c r="C2" t="n">
-        <v>41.05852433</v>
+        <v>41.06307594</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="n">
@@ -83,13 +83,13 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>12.0</v>
+        <v>19.0</v>
       </c>
       <c r="B3" t="n">
-        <v>-80.03358</v>
+        <v>-80.03939</v>
       </c>
       <c r="C3" t="n">
-        <v>41.06328294</v>
+        <v>41.06750213</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="n">
@@ -98,13 +98,13 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>13.0</v>
+        <v>4.0</v>
       </c>
       <c r="B4" t="n">
-        <v>-80.03464</v>
+        <v>-80.047</v>
       </c>
       <c r="C4" t="n">
-        <v>41.06182129</v>
+        <v>41.05760118</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="n">
@@ -113,13 +113,13 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>14.0</v>
+        <v>5.0</v>
       </c>
       <c r="B5" t="n">
-        <v>-80.03641</v>
+        <v>-80.04759</v>
       </c>
       <c r="C5" t="n">
-        <v>41.06307329</v>
+        <v>41.05780933</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="n">
@@ -128,13 +128,13 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>15.0</v>
+        <v>6.0</v>
       </c>
       <c r="B6" t="n">
-        <v>-80.03649</v>
+        <v>-80.04773</v>
       </c>
       <c r="C6" t="n">
-        <v>41.06399662</v>
+        <v>41.0580007</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="n">
@@ -143,13 +143,13 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>16.0</v>
+        <v>7.0</v>
       </c>
       <c r="B7" t="n">
-        <v>-80.03693</v>
+        <v>-80.04754</v>
       </c>
       <c r="C7" t="n">
-        <v>41.06944105</v>
+        <v>41.05828804</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="n">
@@ -158,676 +158,406 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>17.0</v>
+        <v>35.0</v>
       </c>
       <c r="B8" t="n">
-        <v>-80.03837</v>
+        <v>-80.04429</v>
       </c>
       <c r="C8" t="n">
-        <v>41.0630362</v>
+        <v>41.06019151</v>
       </c>
       <c r="D8"/>
       <c r="E8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>20.0</v>
+        <v>37.0</v>
       </c>
       <c r="B9" t="n">
-        <v>-80.04046</v>
+        <v>-80.04618</v>
       </c>
       <c r="C9" t="n">
-        <v>41.06778319</v>
+        <v>41.06131199</v>
       </c>
       <c r="D9"/>
       <c r="E9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>21.0</v>
+        <v>46.0</v>
       </c>
       <c r="B10" t="n">
-        <v>-80.04038</v>
+        <v>-80.04967</v>
       </c>
       <c r="C10" t="n">
-        <v>41.06717882</v>
+        <v>41.05954292</v>
       </c>
       <c r="D10"/>
       <c r="E10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3.0</v>
+        <v>51.0</v>
       </c>
       <c r="B11" t="n">
-        <v>-80.04781</v>
+        <v>-80.04918</v>
       </c>
       <c r="C11" t="n">
-        <v>41.05762504</v>
+        <v>41.06111633</v>
       </c>
       <c r="D11"/>
       <c r="E11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>8.0</v>
+        <v>52.0</v>
       </c>
       <c r="B12" t="n">
-        <v>-80.04738</v>
+        <v>-80.04904</v>
       </c>
       <c r="C12" t="n">
-        <v>41.05841401</v>
+        <v>41.06199026</v>
       </c>
       <c r="D12"/>
       <c r="E12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>9.0</v>
+        <v>53.0</v>
       </c>
       <c r="B13" t="n">
-        <v>-80.04666</v>
+        <v>-80.04843</v>
       </c>
       <c r="C13" t="n">
-        <v>41.05817512</v>
+        <v>41.06219888</v>
       </c>
       <c r="D13"/>
       <c r="E13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11.0</v>
+        <v>56.0</v>
       </c>
       <c r="B14" t="n">
-        <v>-80.03329</v>
+        <v>-80.05029</v>
       </c>
       <c r="C14" t="n">
-        <v>41.06307594</v>
+        <v>41.06199246</v>
       </c>
       <c r="D14"/>
       <c r="E14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>19.0</v>
+        <v>58.0</v>
       </c>
       <c r="B15" t="n">
-        <v>-80.03939</v>
+        <v>-80.05221</v>
       </c>
       <c r="C15" t="n">
-        <v>41.06750213</v>
+        <v>41.0612051</v>
       </c>
       <c r="D15"/>
       <c r="E15" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4.0</v>
+        <v>22.0</v>
       </c>
       <c r="B16" t="n">
-        <v>-80.047</v>
+        <v>-80.04068</v>
       </c>
       <c r="C16" t="n">
-        <v>41.05760118</v>
+        <v>41.06667837</v>
       </c>
       <c r="D16"/>
       <c r="E16" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5.0</v>
+        <v>25.0</v>
       </c>
       <c r="B17" t="n">
-        <v>-80.04759</v>
+        <v>-80.04078</v>
       </c>
       <c r="C17" t="n">
-        <v>41.05780933</v>
+        <v>41.06539249</v>
       </c>
       <c r="D17"/>
       <c r="E17" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>6.0</v>
+        <v>33.0</v>
       </c>
       <c r="B18" t="n">
-        <v>-80.04773</v>
+        <v>-80.04046</v>
       </c>
       <c r="C18" t="n">
-        <v>41.0580007</v>
+        <v>41.06106754</v>
       </c>
       <c r="D18"/>
       <c r="E18" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>7.0</v>
+        <v>38.0</v>
       </c>
       <c r="B19" t="n">
-        <v>-80.04754</v>
+        <v>-80.0457</v>
       </c>
       <c r="C19" t="n">
-        <v>41.05828804</v>
+        <v>41.06212885</v>
       </c>
       <c r="D19"/>
       <c r="E19" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>35.0</v>
+        <v>39.0</v>
       </c>
       <c r="B20" t="n">
-        <v>-80.04429</v>
+        <v>-80.04841</v>
       </c>
       <c r="C20" t="n">
-        <v>41.06019151</v>
+        <v>41.05778901</v>
       </c>
       <c r="D20"/>
       <c r="E20" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>37.0</v>
+        <v>31.0</v>
       </c>
       <c r="B21" t="n">
-        <v>-80.04618</v>
+        <v>-80.04273</v>
       </c>
       <c r="C21" t="n">
-        <v>41.06131199</v>
+        <v>41.06188615</v>
       </c>
       <c r="D21"/>
       <c r="E21" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>46.0</v>
+        <v>34.0</v>
       </c>
       <c r="B22" t="n">
-        <v>-80.04967</v>
+        <v>-80.04257</v>
       </c>
       <c r="C22" t="n">
-        <v>41.05954292</v>
+        <v>41.06085219</v>
       </c>
       <c r="D22"/>
       <c r="E22" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>51.0</v>
+        <v>40.0</v>
       </c>
       <c r="B23" t="n">
-        <v>-80.04918</v>
+        <v>-80.04808</v>
       </c>
       <c r="C23" t="n">
-        <v>41.06111633</v>
+        <v>41.05762051</v>
       </c>
       <c r="D23"/>
       <c r="E23" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>52.0</v>
+        <v>44.0</v>
       </c>
       <c r="B24" t="n">
-        <v>-80.04904</v>
+        <v>-80.0488</v>
       </c>
       <c r="C24" t="n">
-        <v>41.06199026</v>
+        <v>41.06003739</v>
       </c>
       <c r="D24"/>
       <c r="E24" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>53.0</v>
+        <v>50.0</v>
       </c>
       <c r="B25" t="n">
-        <v>-80.04843</v>
+        <v>-80.04951</v>
       </c>
       <c r="C25" t="n">
-        <v>41.06219888</v>
+        <v>41.06127026</v>
       </c>
       <c r="D25"/>
       <c r="E25" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>56.0</v>
+        <v>18.0</v>
       </c>
       <c r="B26" t="n">
-        <v>-80.05029</v>
+        <v>-80.03876</v>
       </c>
       <c r="C26" t="n">
-        <v>41.06199246</v>
+        <v>41.06529995</v>
       </c>
       <c r="D26"/>
       <c r="E26" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>58.0</v>
+        <v>26.0</v>
       </c>
       <c r="B27" t="n">
-        <v>-80.05221</v>
+        <v>-80.04192</v>
       </c>
       <c r="C27" t="n">
-        <v>41.0612051</v>
+        <v>41.06552861</v>
       </c>
       <c r="D27"/>
       <c r="E27" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>22.0</v>
+        <v>27.0</v>
       </c>
       <c r="B28" t="n">
-        <v>-80.04068</v>
+        <v>-80.0422</v>
       </c>
       <c r="C28" t="n">
-        <v>41.06667837</v>
+        <v>41.06527751</v>
       </c>
       <c r="D28"/>
       <c r="E28" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>25.0</v>
+        <v>28.0</v>
       </c>
       <c r="B29" t="n">
-        <v>-80.04078</v>
+        <v>-80.04381</v>
       </c>
       <c r="C29" t="n">
-        <v>41.06539249</v>
+        <v>41.0649643</v>
       </c>
       <c r="D29"/>
       <c r="E29" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>33.0</v>
+        <v>29.0</v>
       </c>
       <c r="B30" t="n">
-        <v>-80.04046</v>
+        <v>-80.0436</v>
       </c>
       <c r="C30" t="n">
-        <v>41.06106754</v>
+        <v>41.06516554</v>
       </c>
       <c r="D30"/>
       <c r="E30" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>38.0</v>
+        <v>30.0</v>
       </c>
       <c r="B31" t="n">
-        <v>-80.0457</v>
+        <v>-80.04349</v>
       </c>
       <c r="C31" t="n">
-        <v>41.06212885</v>
+        <v>41.06326948</v>
       </c>
       <c r="D31"/>
       <c r="E31" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>39.0</v>
+        <v>36.0</v>
       </c>
       <c r="B32" t="n">
-        <v>-80.04841</v>
+        <v>-80.04431</v>
       </c>
       <c r="C32" t="n">
-        <v>41.05778901</v>
+        <v>41.06092536</v>
       </c>
       <c r="D32"/>
       <c r="E32" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>41.0</v>
+        <v>49.0</v>
       </c>
       <c r="B33" t="n">
-        <v>-80.04595</v>
+        <v>-80.05009</v>
       </c>
       <c r="C33" t="n">
-        <v>41.05988253</v>
+        <v>41.06067186</v>
       </c>
       <c r="D33"/>
       <c r="E33" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>42.0</v>
+        <v>57.0</v>
       </c>
       <c r="B34" t="n">
-        <v>-80.0459</v>
+        <v>-80.05152</v>
       </c>
       <c r="C34" t="n">
-        <v>41.06011254</v>
+        <v>41.061453</v>
       </c>
       <c r="D34"/>
       <c r="E34" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>45.0</v>
-      </c>
-      <c r="B35" t="n">
-        <v>-80.04838</v>
-      </c>
-      <c r="C35" t="n">
-        <v>41.06107385</v>
-      </c>
-      <c r="D35"/>
-      <c r="E35" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="n">
-        <v>47.0</v>
-      </c>
-      <c r="B36" t="n">
-        <v>-80.05088</v>
-      </c>
-      <c r="C36" t="n">
-        <v>41.05933591</v>
-      </c>
-      <c r="D36"/>
-      <c r="E36" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="n">
-        <v>48.0</v>
-      </c>
-      <c r="B37" t="n">
-        <v>-80.05073</v>
-      </c>
-      <c r="C37" t="n">
-        <v>41.05993479</v>
-      </c>
-      <c r="D37"/>
-      <c r="E37" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="n">
-        <v>59.0</v>
-      </c>
-      <c r="B38" t="n">
-        <v>-80.05309</v>
-      </c>
-      <c r="C38" t="n">
-        <v>41.0620405</v>
-      </c>
-      <c r="D38"/>
-      <c r="E38" t="n">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="n">
-        <v>31.0</v>
-      </c>
-      <c r="B39" t="n">
-        <v>-80.04273</v>
-      </c>
-      <c r="C39" t="n">
-        <v>41.06188615</v>
-      </c>
-      <c r="D39"/>
-      <c r="E39" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="n">
-        <v>34.0</v>
-      </c>
-      <c r="B40" t="n">
-        <v>-80.04257</v>
-      </c>
-      <c r="C40" t="n">
-        <v>41.06085219</v>
-      </c>
-      <c r="D40"/>
-      <c r="E40" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="n">
-        <v>40.0</v>
-      </c>
-      <c r="B41" t="n">
-        <v>-80.04808</v>
-      </c>
-      <c r="C41" t="n">
-        <v>41.05762051</v>
-      </c>
-      <c r="D41"/>
-      <c r="E41" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="n">
-        <v>44.0</v>
-      </c>
-      <c r="B42" t="n">
-        <v>-80.0488</v>
-      </c>
-      <c r="C42" t="n">
-        <v>41.06003739</v>
-      </c>
-      <c r="D42"/>
-      <c r="E42" t="n">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="B43" t="n">
-        <v>-80.04951</v>
-      </c>
-      <c r="C43" t="n">
-        <v>41.06127026</v>
-      </c>
-      <c r="D43"/>
-      <c r="E43" t="n">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="n">
-        <v>18.0</v>
-      </c>
-      <c r="B44" t="n">
-        <v>-80.03876</v>
-      </c>
-      <c r="C44" t="n">
-        <v>41.06529995</v>
-      </c>
-      <c r="D44"/>
-      <c r="E44" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="n">
-        <v>26.0</v>
-      </c>
-      <c r="B45" t="n">
-        <v>-80.04192</v>
-      </c>
-      <c r="C45" t="n">
-        <v>41.06552861</v>
-      </c>
-      <c r="D45"/>
-      <c r="E45" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="n">
-        <v>27.0</v>
-      </c>
-      <c r="B46" t="n">
-        <v>-80.0422</v>
-      </c>
-      <c r="C46" t="n">
-        <v>41.06527751</v>
-      </c>
-      <c r="D46"/>
-      <c r="E46" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="n">
-        <v>28.0</v>
-      </c>
-      <c r="B47" t="n">
-        <v>-80.04381</v>
-      </c>
-      <c r="C47" t="n">
-        <v>41.0649643</v>
-      </c>
-      <c r="D47"/>
-      <c r="E47" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="n">
-        <v>29.0</v>
-      </c>
-      <c r="B48" t="n">
-        <v>-80.0436</v>
-      </c>
-      <c r="C48" t="n">
-        <v>41.06516554</v>
-      </c>
-      <c r="D48"/>
-      <c r="E48" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="n">
-        <v>30.0</v>
-      </c>
-      <c r="B49" t="n">
-        <v>-80.04349</v>
-      </c>
-      <c r="C49" t="n">
-        <v>41.06326948</v>
-      </c>
-      <c r="D49"/>
-      <c r="E49" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="n">
-        <v>36.0</v>
-      </c>
-      <c r="B50" t="n">
-        <v>-80.04431</v>
-      </c>
-      <c r="C50" t="n">
-        <v>41.06092536</v>
-      </c>
-      <c r="D50"/>
-      <c r="E50" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="n">
-        <v>49.0</v>
-      </c>
-      <c r="B51" t="n">
-        <v>-80.05009</v>
-      </c>
-      <c r="C51" t="n">
-        <v>41.06067186</v>
-      </c>
-      <c r="D51"/>
-      <c r="E51" t="n">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="n">
-        <v>57.0</v>
-      </c>
-      <c r="B52" t="n">
-        <v>-80.05152</v>
-      </c>
-      <c r="C52" t="n">
-        <v>41.061453</v>
-      </c>
-      <c r="D52"/>
-      <c r="E52" t="n">
         <v>6.0</v>
       </c>
     </row>
